--- a/ClinicalAthletes/UserExcels/raviaazad@hotmail.com.xlsx
+++ b/ClinicalAthletes/UserExcels/raviaazad@hotmail.com.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ClinicalAthletes\ClinicalAthletes\OutputTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Patellar Tendinopathy Protocol</t>
   </si>
@@ -57,19 +57,19 @@
     <t>Bilateral Leg Move 1</t>
   </si>
   <si>
-    <t>zercher squat</t>
+    <t>front squat</t>
   </si>
   <si>
     <t>Bilateral Leg Move 2</t>
   </si>
   <si>
-    <t>front squat</t>
+    <t>low bar back squat</t>
   </si>
   <si>
     <t>Single Leg Move 1</t>
   </si>
   <si>
-    <t>Step-Ups</t>
+    <t>Front Foot elevated Lunges</t>
   </si>
   <si>
     <t>Accessory Isometrics</t>
@@ -90,7 +90,7 @@
     <t>Weightlifting</t>
   </si>
   <si>
-    <t>Power Clean</t>
+    <t>Muscle Snatch</t>
   </si>
   <si>
     <t>Day 2</t>
@@ -119,22 +119,13 @@
   <si>
     <t>Week 12</t>
   </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -145,20 +136,24 @@
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -166,21 +161,25 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -191,6 +190,14 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -424,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
@@ -465,7 +472,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="8" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
@@ -489,7 +495,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
@@ -505,6 +510,9 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
@@ -514,9 +522,11 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF913"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -838,7 +848,7 @@
     <col min="31" max="32" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="17.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -924,51 +934,51 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" ht="14.4">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="73" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="73" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-    </row>
-    <row r="5">
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+    </row>
+    <row r="5" ht="14.4">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>7</v>
@@ -1034,7 +1044,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.6">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1047,35 +1057,45 @@
       <c r="D6" s="18">
         <v>15</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="19">
+        <v>2</v>
+      </c>
       <c r="F6" s="17">
         <v>3</v>
       </c>
       <c r="G6" s="18">
         <v>12</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19">
+        <v>2</v>
+      </c>
       <c r="I6" s="17">
         <v>3</v>
       </c>
       <c r="J6" s="18">
         <v>12</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
       <c r="L6" s="17">
         <v>4</v>
       </c>
       <c r="M6" s="18">
         <v>10</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="19">
+        <v>2</v>
+      </c>
       <c r="O6" s="17">
         <v>4</v>
       </c>
       <c r="P6" s="18">
         <v>10</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19">
+        <v>2</v>
+      </c>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="20"/>
@@ -1092,7 +1112,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="20"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.6">
       <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
@@ -1105,35 +1125,45 @@
       <c r="D7" s="23">
         <v>15</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
       <c r="F7" s="22">
         <v>3</v>
       </c>
       <c r="G7" s="23">
         <v>12</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="24">
+        <v>2</v>
+      </c>
       <c r="I7" s="22">
         <v>3</v>
       </c>
       <c r="J7" s="23">
         <v>12</v>
       </c>
-      <c r="K7" s="24"/>
+      <c r="K7" s="24">
+        <v>2</v>
+      </c>
       <c r="L7" s="22">
         <v>4</v>
       </c>
       <c r="M7" s="23">
         <v>10</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="24">
+        <v>2</v>
+      </c>
       <c r="O7" s="22">
         <v>4</v>
       </c>
       <c r="P7" s="23">
         <v>10</v>
       </c>
-      <c r="Q7" s="24"/>
+      <c r="Q7" s="24">
+        <v>2</v>
+      </c>
       <c r="R7" s="25"/>
       <c r="S7" s="25"/>
       <c r="T7" s="14"/>
@@ -1150,11 +1180,11 @@
       <c r="AE7" s="25"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.6">
       <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="22">
@@ -1163,35 +1193,45 @@
       <c r="D8" s="23">
         <v>15</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="24">
+        <v>2</v>
+      </c>
       <c r="F8" s="22">
         <v>3</v>
       </c>
       <c r="G8" s="23">
         <v>12</v>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="24">
+        <v>2</v>
+      </c>
       <c r="I8" s="22">
         <v>3</v>
       </c>
       <c r="J8" s="23">
         <v>12</v>
       </c>
-      <c r="K8" s="24"/>
+      <c r="K8" s="24">
+        <v>2</v>
+      </c>
       <c r="L8" s="22">
         <v>4</v>
       </c>
       <c r="M8" s="23">
         <v>10</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="24">
+        <v>2</v>
+      </c>
       <c r="O8" s="22">
         <v>4</v>
       </c>
       <c r="P8" s="23">
         <v>10</v>
       </c>
-      <c r="Q8" s="24"/>
+      <c r="Q8" s="24">
+        <v>2</v>
+      </c>
       <c r="R8" s="25"/>
       <c r="S8" s="25"/>
       <c r="T8" s="14"/>
@@ -1208,11 +1248,11 @@
       <c r="AE8" s="25"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.6">
       <c r="A9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="28">
@@ -1259,11 +1299,11 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="20"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.6">
       <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="78" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="31"/>
@@ -1285,27 +1325,27 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.6">
       <c r="A11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="77" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="31"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
@@ -1315,23 +1355,23 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12">
-      <c r="A12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="47"/>
+    <row r="12" ht="14.4">
+      <c r="A12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="46"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="20"/>
@@ -1348,54 +1388,54 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="20"/>
     </row>
-    <row r="13">
-      <c r="A13" s="38"/>
+    <row r="13" ht="14.4">
+      <c r="A13" s="37"/>
       <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="53" t="s">
+      <c r="G13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="53" t="s">
+      <c r="O13" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="P13" s="53" t="s">
+      <c r="P13" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Q13" s="53" t="s">
+      <c r="Q13" s="52" t="s">
         <v>10</v>
       </c>
       <c r="R13" s="20"/>
@@ -1414,11 +1454,11 @@
       <c r="AE13" s="25"/>
       <c r="AF13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.6">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="28">
@@ -1427,35 +1467,45 @@
       <c r="D14" s="11">
         <v>15</v>
       </c>
-      <c r="E14" s="29"/>
+      <c r="E14" s="29">
+        <v>2</v>
+      </c>
       <c r="F14" s="28">
         <v>3</v>
       </c>
       <c r="G14" s="11">
         <v>12</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="29">
+        <v>2</v>
+      </c>
       <c r="I14" s="28">
         <v>3</v>
       </c>
       <c r="J14" s="11">
         <v>12</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="29">
+        <v>2</v>
+      </c>
       <c r="L14" s="28">
         <v>4</v>
       </c>
       <c r="M14" s="11">
         <v>10</v>
       </c>
-      <c r="N14" s="29"/>
+      <c r="N14" s="29">
+        <v>2</v>
+      </c>
       <c r="O14" s="28">
         <v>4</v>
       </c>
       <c r="P14" s="11">
         <v>10</v>
       </c>
-      <c r="Q14" s="29"/>
+      <c r="Q14" s="29">
+        <v>2</v>
+      </c>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
@@ -1472,11 +1522,11 @@
       <c r="AE14" s="25"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.6">
       <c r="A15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="22">
@@ -1485,35 +1535,45 @@
       <c r="D15" s="23">
         <v>15</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="24">
+        <v>2</v>
+      </c>
       <c r="F15" s="22">
         <v>3</v>
       </c>
       <c r="G15" s="23">
         <v>12</v>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="24">
+        <v>2</v>
+      </c>
       <c r="I15" s="22">
         <v>3</v>
       </c>
       <c r="J15" s="23">
         <v>12</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24">
+        <v>2</v>
+      </c>
       <c r="L15" s="22">
         <v>4</v>
       </c>
       <c r="M15" s="23">
         <v>10</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="24">
+        <v>2</v>
+      </c>
       <c r="O15" s="22">
         <v>4</v>
       </c>
       <c r="P15" s="23">
         <v>10</v>
       </c>
-      <c r="Q15" s="24"/>
+      <c r="Q15" s="24">
+        <v>2</v>
+      </c>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="20"/>
@@ -1530,11 +1590,11 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="20"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.6">
       <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="22">
@@ -1543,35 +1603,45 @@
       <c r="D16" s="23">
         <v>15</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="24">
+        <v>2</v>
+      </c>
       <c r="F16" s="22">
         <v>3</v>
       </c>
       <c r="G16" s="23">
         <v>12</v>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="24">
+        <v>2</v>
+      </c>
       <c r="I16" s="22">
         <v>3</v>
       </c>
       <c r="J16" s="23">
         <v>12</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="24">
+        <v>2</v>
+      </c>
       <c r="L16" s="22">
         <v>4</v>
       </c>
       <c r="M16" s="23">
         <v>10</v>
       </c>
-      <c r="N16" s="24"/>
+      <c r="N16" s="24">
+        <v>2</v>
+      </c>
       <c r="O16" s="22">
         <v>4</v>
       </c>
       <c r="P16" s="23">
         <v>10</v>
       </c>
-      <c r="Q16" s="24"/>
+      <c r="Q16" s="24">
+        <v>2</v>
+      </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
       <c r="T16" s="14"/>
@@ -1588,11 +1658,11 @@
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.6">
       <c r="A17" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="28">
@@ -1646,28 +1716,28 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.6">
       <c r="A18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="56"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="55"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="55"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="57"/>
+      <c r="Q18" s="56"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="20"/>
@@ -1684,28 +1754,28 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="20"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.6">
       <c r="A19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
@@ -1722,24 +1792,24 @@
       <c r="AE19" s="25"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20">
+    <row r="20" ht="14.4">
       <c r="A20" s="10"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="47"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="46"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="25"/>
@@ -1749,12 +1819,12 @@
       <c r="AE20" s="25"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" ht="14.4">
       <c r="A21" s="10"/>
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -1763,7 +1833,7 @@
       <c r="E21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="24" t="s">
@@ -1772,7 +1842,7 @@
       <c r="H21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="24" t="s">
@@ -1781,7 +1851,7 @@
       <c r="K21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="24" t="s">
@@ -1790,7 +1860,7 @@
       <c r="N21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="59" t="s">
+      <c r="O21" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="24" t="s">
@@ -1815,7 +1885,7 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="20"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.6">
       <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
@@ -1828,35 +1898,45 @@
       <c r="D22" s="18">
         <v>15</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
       <c r="F22" s="17">
         <v>3</v>
       </c>
       <c r="G22" s="18">
         <v>12</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="19">
+        <v>2</v>
+      </c>
       <c r="I22" s="17">
         <v>3</v>
       </c>
       <c r="J22" s="18">
         <v>12</v>
       </c>
-      <c r="K22" s="19"/>
+      <c r="K22" s="19">
+        <v>2</v>
+      </c>
       <c r="L22" s="17">
         <v>4</v>
       </c>
       <c r="M22" s="18">
         <v>10</v>
       </c>
-      <c r="N22" s="19"/>
+      <c r="N22" s="19">
+        <v>2</v>
+      </c>
       <c r="O22" s="17">
         <v>4</v>
       </c>
       <c r="P22" s="18">
         <v>10</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="19">
+        <v>2</v>
+      </c>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
       <c r="T22" s="20"/>
@@ -1873,7 +1953,7 @@
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
     </row>
-    <row r="23">
+    <row r="23" ht="15.6">
       <c r="A23" s="21" t="s">
         <v>13</v>
       </c>
@@ -1886,35 +1966,45 @@
       <c r="D23" s="23">
         <v>15</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24">
+        <v>2</v>
+      </c>
       <c r="F23" s="22">
         <v>3</v>
       </c>
       <c r="G23" s="23">
         <v>12</v>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="24">
+        <v>2</v>
+      </c>
       <c r="I23" s="22">
         <v>3</v>
       </c>
       <c r="J23" s="23">
         <v>12</v>
       </c>
-      <c r="K23" s="24"/>
+      <c r="K23" s="24">
+        <v>2</v>
+      </c>
       <c r="L23" s="22">
         <v>4</v>
       </c>
       <c r="M23" s="23">
         <v>10</v>
       </c>
-      <c r="N23" s="24"/>
+      <c r="N23" s="24">
+        <v>2</v>
+      </c>
       <c r="O23" s="22">
         <v>4</v>
       </c>
       <c r="P23" s="23">
         <v>10</v>
       </c>
-      <c r="Q23" s="24"/>
+      <c r="Q23" s="24">
+        <v>2</v>
+      </c>
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="14"/>
@@ -1931,11 +2021,11 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" ht="15.6">
       <c r="A24" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="22">
@@ -1944,35 +2034,45 @@
       <c r="D24" s="23">
         <v>15</v>
       </c>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24">
+        <v>2</v>
+      </c>
       <c r="F24" s="22">
         <v>3</v>
       </c>
       <c r="G24" s="23">
         <v>12</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="24">
+        <v>2</v>
+      </c>
       <c r="I24" s="22">
         <v>3</v>
       </c>
       <c r="J24" s="23">
         <v>12</v>
       </c>
-      <c r="K24" s="24"/>
+      <c r="K24" s="24">
+        <v>2</v>
+      </c>
       <c r="L24" s="22">
         <v>4</v>
       </c>
       <c r="M24" s="23">
         <v>10</v>
       </c>
-      <c r="N24" s="24"/>
+      <c r="N24" s="24">
+        <v>2</v>
+      </c>
       <c r="O24" s="22">
         <v>4</v>
       </c>
       <c r="P24" s="23">
         <v>10</v>
       </c>
-      <c r="Q24" s="24"/>
+      <c r="Q24" s="24">
+        <v>2</v>
+      </c>
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="14"/>
@@ -1989,11 +2089,11 @@
       <c r="AE24" s="25"/>
       <c r="AF24" s="20"/>
     </row>
-    <row r="25">
+    <row r="25" ht="15.6">
       <c r="A25" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="28">
@@ -2047,28 +2147,28 @@
       <c r="AE25" s="25"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" ht="15.6">
       <c r="A26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="56"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="55"/>
       <c r="P26" s="20"/>
-      <c r="Q26" s="57"/>
+      <c r="Q26" s="56"/>
       <c r="R26" s="20"/>
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
@@ -2085,78 +2185,78 @@
       <c r="AE26" s="25"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" ht="15.6">
       <c r="A27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="60"/>
+      <c r="AA27" s="58"/>
       <c r="AB27" s="25"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="60"/>
+      <c r="AD27" s="58"/>
       <c r="AE27" s="25"/>
       <c r="AF27" s="9"/>
     </row>
-    <row r="28">
-      <c r="A28" s="38"/>
+    <row r="28" ht="14.4">
+      <c r="A28" s="37"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76" t="s">
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="73" t="s">
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="74"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76" t="s">
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="73" t="s">
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="76" t="s">
+      <c r="P28" s="73"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="S28" s="74"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="73" t="s">
+      <c r="S28" s="73"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="V28" s="74"/>
-      <c r="W28" s="75"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="74"/>
       <c r="X28" s="25"/>
     </row>
-    <row r="29">
+    <row r="29" ht="14.4">
       <c r="A29" s="10"/>
       <c r="B29" s="12" t="s">
         <v>7</v>
@@ -2239,50 +2339,64 @@
       <c r="D30" s="18">
         <v>8</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
       <c r="F30" s="17">
         <v>4</v>
       </c>
       <c r="G30" s="18">
         <v>8</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19">
+        <v>2</v>
+      </c>
       <c r="I30" s="17">
         <v>4</v>
       </c>
       <c r="J30" s="18">
         <v>8</v>
       </c>
-      <c r="K30" s="19"/>
+      <c r="K30" s="19">
+        <v>2</v>
+      </c>
       <c r="L30" s="17">
         <v>4</v>
       </c>
       <c r="M30" s="18">
         <v>6</v>
       </c>
-      <c r="N30" s="19"/>
+      <c r="N30" s="19">
+        <v>2</v>
+      </c>
       <c r="O30" s="17">
         <v>4</v>
       </c>
       <c r="P30" s="18">
         <v>6</v>
       </c>
-      <c r="Q30" s="19"/>
+      <c r="Q30" s="19">
+        <v>2</v>
+      </c>
       <c r="R30" s="17">
         <v>4</v>
       </c>
       <c r="S30" s="18">
         <v>6</v>
       </c>
-      <c r="T30" s="19"/>
+      <c r="T30" s="19">
+        <v>2</v>
+      </c>
       <c r="U30" s="17">
         <v>4</v>
       </c>
       <c r="V30" s="18">
         <v>6</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="60"/>
+      <c r="W30" s="19">
+        <v>2</v>
+      </c>
+      <c r="X30" s="58"/>
     </row>
     <row r="31" ht="15.6">
       <c r="A31" s="21" t="s">
@@ -2297,55 +2411,69 @@
       <c r="D31" s="23">
         <v>8</v>
       </c>
-      <c r="E31" s="24"/>
+      <c r="E31" s="24">
+        <v>2</v>
+      </c>
       <c r="F31" s="22">
         <v>4</v>
       </c>
       <c r="G31" s="23">
         <v>8</v>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="24">
+        <v>2</v>
+      </c>
       <c r="I31" s="22">
         <v>4</v>
       </c>
       <c r="J31" s="23">
         <v>8</v>
       </c>
-      <c r="K31" s="24"/>
+      <c r="K31" s="24">
+        <v>2</v>
+      </c>
       <c r="L31" s="22">
         <v>4</v>
       </c>
       <c r="M31" s="23">
         <v>6</v>
       </c>
-      <c r="N31" s="24"/>
+      <c r="N31" s="24">
+        <v>2</v>
+      </c>
       <c r="O31" s="22">
         <v>4</v>
       </c>
       <c r="P31" s="23">
         <v>6</v>
       </c>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="24">
+        <v>2</v>
+      </c>
       <c r="R31" s="22">
         <v>4</v>
       </c>
       <c r="S31" s="23">
         <v>6</v>
       </c>
-      <c r="T31" s="24"/>
+      <c r="T31" s="24">
+        <v>2</v>
+      </c>
       <c r="U31" s="22">
         <v>4</v>
       </c>
       <c r="V31" s="23">
         <v>6</v>
       </c>
-      <c r="W31" s="24"/>
+      <c r="W31" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" ht="15.6">
       <c r="A32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="76" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="22">
@@ -2354,55 +2482,69 @@
       <c r="D32" s="23">
         <v>8</v>
       </c>
-      <c r="E32" s="24"/>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
       <c r="F32" s="22">
         <v>4</v>
       </c>
       <c r="G32" s="23">
         <v>8</v>
       </c>
-      <c r="H32" s="24"/>
+      <c r="H32" s="24">
+        <v>2</v>
+      </c>
       <c r="I32" s="22">
         <v>4</v>
       </c>
       <c r="J32" s="23">
         <v>8</v>
       </c>
-      <c r="K32" s="24"/>
+      <c r="K32" s="24">
+        <v>2</v>
+      </c>
       <c r="L32" s="22">
         <v>4</v>
       </c>
       <c r="M32" s="23">
         <v>6</v>
       </c>
-      <c r="N32" s="24"/>
+      <c r="N32" s="24">
+        <v>2</v>
+      </c>
       <c r="O32" s="22">
         <v>4</v>
       </c>
       <c r="P32" s="23">
         <v>6</v>
       </c>
-      <c r="Q32" s="24"/>
+      <c r="Q32" s="24">
+        <v>2</v>
+      </c>
       <c r="R32" s="22">
         <v>4</v>
       </c>
       <c r="S32" s="23">
         <v>6</v>
       </c>
-      <c r="T32" s="24"/>
+      <c r="T32" s="24">
+        <v>2</v>
+      </c>
       <c r="U32" s="22">
         <v>4</v>
       </c>
       <c r="V32" s="23">
         <v>6</v>
       </c>
-      <c r="W32" s="24"/>
+      <c r="W32" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" ht="15.6">
       <c r="A33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="76" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="28">
@@ -2477,66 +2619,66 @@
       <c r="U34" s="31"/>
       <c r="W34" s="32"/>
     </row>
-    <row r="35" ht="15">
+    <row r="35" ht="15.6">
       <c r="A35" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="37"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
     </row>
     <row r="36" ht="14.4">
       <c r="A36" s="10"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="61"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="63"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="61"/>
     </row>
     <row r="37" ht="14.4">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -2545,7 +2687,7 @@
       <c r="E37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="F37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="24" t="s">
@@ -2554,7 +2696,7 @@
       <c r="H37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="59" t="s">
+      <c r="I37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J37" s="24" t="s">
@@ -2563,7 +2705,7 @@
       <c r="K37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="59" t="s">
+      <c r="L37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="24" t="s">
@@ -2572,7 +2714,7 @@
       <c r="N37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="59" t="s">
+      <c r="O37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P37" s="24" t="s">
@@ -2581,7 +2723,7 @@
       <c r="Q37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R37" s="59" t="s">
+      <c r="R37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="24" t="s">
@@ -2590,7 +2732,7 @@
       <c r="T37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U37" s="59" t="s">
+      <c r="U37" s="57" t="s">
         <v>8</v>
       </c>
       <c r="V37" s="24" t="s">
@@ -2613,49 +2755,63 @@
       <c r="D38" s="18">
         <v>8</v>
       </c>
-      <c r="E38" s="19"/>
+      <c r="E38" s="19">
+        <v>2</v>
+      </c>
       <c r="F38" s="17">
         <v>4</v>
       </c>
       <c r="G38" s="18">
         <v>8</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="19">
+        <v>2</v>
+      </c>
       <c r="I38" s="17">
         <v>4</v>
       </c>
       <c r="J38" s="18">
         <v>8</v>
       </c>
-      <c r="K38" s="19"/>
+      <c r="K38" s="19">
+        <v>2</v>
+      </c>
       <c r="L38" s="17">
         <v>4</v>
       </c>
       <c r="M38" s="18">
         <v>6</v>
       </c>
-      <c r="N38" s="19"/>
+      <c r="N38" s="19">
+        <v>2</v>
+      </c>
       <c r="O38" s="17">
         <v>4</v>
       </c>
       <c r="P38" s="18">
         <v>6</v>
       </c>
-      <c r="Q38" s="19"/>
+      <c r="Q38" s="19">
+        <v>2</v>
+      </c>
       <c r="R38" s="17">
         <v>4</v>
       </c>
       <c r="S38" s="18">
         <v>6</v>
       </c>
-      <c r="T38" s="19"/>
+      <c r="T38" s="19">
+        <v>2</v>
+      </c>
       <c r="U38" s="17">
         <v>4</v>
       </c>
       <c r="V38" s="18">
         <v>6</v>
       </c>
-      <c r="W38" s="19"/>
+      <c r="W38" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" ht="15.6">
       <c r="A39" s="21" t="s">
@@ -2670,112 +2826,140 @@
       <c r="D39" s="23">
         <v>8</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="24">
+        <v>2</v>
+      </c>
       <c r="F39" s="22">
         <v>4</v>
       </c>
       <c r="G39" s="23">
         <v>8</v>
       </c>
-      <c r="H39" s="24"/>
+      <c r="H39" s="24">
+        <v>2</v>
+      </c>
       <c r="I39" s="22">
         <v>4</v>
       </c>
       <c r="J39" s="23">
         <v>8</v>
       </c>
-      <c r="K39" s="24"/>
+      <c r="K39" s="24">
+        <v>2</v>
+      </c>
       <c r="L39" s="22">
         <v>4</v>
       </c>
       <c r="M39" s="23">
         <v>6</v>
       </c>
-      <c r="N39" s="24"/>
+      <c r="N39" s="24">
+        <v>2</v>
+      </c>
       <c r="O39" s="22">
         <v>4</v>
       </c>
       <c r="P39" s="23">
         <v>6</v>
       </c>
-      <c r="Q39" s="24"/>
+      <c r="Q39" s="24">
+        <v>2</v>
+      </c>
       <c r="R39" s="22">
         <v>4</v>
       </c>
       <c r="S39" s="23">
         <v>6</v>
       </c>
-      <c r="T39" s="24"/>
+      <c r="T39" s="24">
+        <v>2</v>
+      </c>
       <c r="U39" s="22">
         <v>4</v>
       </c>
       <c r="V39" s="23">
         <v>6</v>
       </c>
-      <c r="W39" s="24"/>
+      <c r="W39" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" ht="15.6">
       <c r="A40" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="64">
         <v>4</v>
       </c>
       <c r="D40" s="25">
         <v>8</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="66">
+      <c r="E40" s="65">
+        <v>2</v>
+      </c>
+      <c r="F40" s="64">
         <v>4</v>
       </c>
       <c r="G40" s="25">
         <v>8</v>
       </c>
-      <c r="H40" s="67"/>
-      <c r="I40" s="66">
+      <c r="H40" s="65">
+        <v>2</v>
+      </c>
+      <c r="I40" s="64">
         <v>4</v>
       </c>
       <c r="J40" s="25">
         <v>8</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="66">
+      <c r="K40" s="65">
+        <v>2</v>
+      </c>
+      <c r="L40" s="64">
         <v>4</v>
       </c>
       <c r="M40" s="25">
         <v>6</v>
       </c>
-      <c r="N40" s="67"/>
-      <c r="O40" s="66">
+      <c r="N40" s="65">
+        <v>2</v>
+      </c>
+      <c r="O40" s="64">
         <v>4</v>
       </c>
       <c r="P40" s="25">
         <v>6</v>
       </c>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="66">
+      <c r="Q40" s="65">
+        <v>2</v>
+      </c>
+      <c r="R40" s="64">
         <v>4</v>
       </c>
       <c r="S40" s="25">
         <v>6</v>
       </c>
-      <c r="T40" s="67"/>
-      <c r="U40" s="66">
+      <c r="T40" s="65">
+        <v>2</v>
+      </c>
+      <c r="U40" s="64">
         <v>4</v>
       </c>
       <c r="V40" s="25">
         <v>6</v>
       </c>
-      <c r="W40" s="67"/>
+      <c r="W40" s="65">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" ht="15.6">
       <c r="A41" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="28">
@@ -2832,91 +3016,91 @@
       <c r="A42" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="55"/>
       <c r="M42" s="20"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="55"/>
       <c r="P42" s="20"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="55"/>
       <c r="S42" s="20"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="55"/>
       <c r="V42" s="20"/>
-      <c r="W42" s="57"/>
-    </row>
-    <row r="43" ht="15">
+      <c r="W42" s="56"/>
+    </row>
+    <row r="43" ht="15.6">
       <c r="A43" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="37"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="37"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="36"/>
     </row>
     <row r="44" ht="15.6">
-      <c r="A44" s="68"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="10"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="63"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="61"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="59"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
     </row>
     <row r="45" ht="14.4">
-      <c r="A45" s="38"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="24" t="s">
@@ -2925,7 +3109,7 @@
       <c r="E45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="59" t="s">
+      <c r="F45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="24" t="s">
@@ -2934,7 +3118,7 @@
       <c r="H45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I45" s="59" t="s">
+      <c r="I45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="24" t="s">
@@ -2943,7 +3127,7 @@
       <c r="K45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L45" s="59" t="s">
+      <c r="L45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="24" t="s">
@@ -2952,7 +3136,7 @@
       <c r="N45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="59" t="s">
+      <c r="O45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="24" t="s">
@@ -2961,7 +3145,7 @@
       <c r="Q45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="59" t="s">
+      <c r="R45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="24" t="s">
@@ -2970,7 +3154,7 @@
       <c r="T45" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U45" s="59" t="s">
+      <c r="U45" s="57" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="24" t="s">
@@ -2993,49 +3177,63 @@
       <c r="D46" s="18">
         <v>8</v>
       </c>
-      <c r="E46" s="19"/>
+      <c r="E46" s="19">
+        <v>2</v>
+      </c>
       <c r="F46" s="17">
         <v>4</v>
       </c>
       <c r="G46" s="18">
         <v>8</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="19">
+        <v>2</v>
+      </c>
       <c r="I46" s="17">
         <v>4</v>
       </c>
       <c r="J46" s="18">
         <v>8</v>
       </c>
-      <c r="K46" s="19"/>
+      <c r="K46" s="19">
+        <v>2</v>
+      </c>
       <c r="L46" s="17">
         <v>4</v>
       </c>
       <c r="M46" s="18">
         <v>6</v>
       </c>
-      <c r="N46" s="19"/>
+      <c r="N46" s="19">
+        <v>2</v>
+      </c>
       <c r="O46" s="17">
         <v>4</v>
       </c>
       <c r="P46" s="18">
         <v>6</v>
       </c>
-      <c r="Q46" s="19"/>
+      <c r="Q46" s="19">
+        <v>2</v>
+      </c>
       <c r="R46" s="17">
         <v>4</v>
       </c>
       <c r="S46" s="18">
         <v>6</v>
       </c>
-      <c r="T46" s="19"/>
+      <c r="T46" s="19">
+        <v>2</v>
+      </c>
       <c r="U46" s="17">
         <v>4</v>
       </c>
       <c r="V46" s="18">
         <v>6</v>
       </c>
-      <c r="W46" s="19"/>
+      <c r="W46" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" ht="15.6">
       <c r="A47" s="21" t="s">
@@ -3050,8 +3248,8 @@
       <c r="D47" s="23">
         <v>8</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>33</v>
+      <c r="E47" s="24">
+        <v>2</v>
       </c>
       <c r="F47" s="22">
         <v>4</v>
@@ -3059,48 +3257,60 @@
       <c r="G47" s="23">
         <v>8</v>
       </c>
-      <c r="H47" s="24"/>
+      <c r="H47" s="24">
+        <v>2</v>
+      </c>
       <c r="I47" s="22">
         <v>4</v>
       </c>
       <c r="J47" s="23">
         <v>8</v>
       </c>
-      <c r="K47" s="24"/>
+      <c r="K47" s="24">
+        <v>2</v>
+      </c>
       <c r="L47" s="22">
         <v>4</v>
       </c>
       <c r="M47" s="23">
         <v>6</v>
       </c>
-      <c r="N47" s="24"/>
+      <c r="N47" s="24">
+        <v>2</v>
+      </c>
       <c r="O47" s="22">
         <v>4</v>
       </c>
       <c r="P47" s="23">
         <v>6</v>
       </c>
-      <c r="Q47" s="24"/>
+      <c r="Q47" s="24">
+        <v>2</v>
+      </c>
       <c r="R47" s="22">
         <v>4</v>
       </c>
       <c r="S47" s="23">
         <v>6</v>
       </c>
-      <c r="T47" s="24"/>
+      <c r="T47" s="24">
+        <v>2</v>
+      </c>
       <c r="U47" s="22">
         <v>4</v>
       </c>
       <c r="V47" s="23">
         <v>6</v>
       </c>
-      <c r="W47" s="24"/>
+      <c r="W47" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" ht="15.6">
       <c r="A48" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="22">
@@ -3109,8 +3319,8 @@
       <c r="D48" s="23">
         <v>8</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>33</v>
+      <c r="E48" s="24">
+        <v>2</v>
       </c>
       <c r="F48" s="22">
         <v>4</v>
@@ -3118,48 +3328,60 @@
       <c r="G48" s="23">
         <v>8</v>
       </c>
-      <c r="H48" s="24"/>
+      <c r="H48" s="24">
+        <v>2</v>
+      </c>
       <c r="I48" s="22">
         <v>4</v>
       </c>
       <c r="J48" s="23">
         <v>8</v>
       </c>
-      <c r="K48" s="24"/>
+      <c r="K48" s="24">
+        <v>2</v>
+      </c>
       <c r="L48" s="22">
         <v>4</v>
       </c>
       <c r="M48" s="23">
         <v>6</v>
       </c>
-      <c r="N48" s="24"/>
+      <c r="N48" s="24">
+        <v>2</v>
+      </c>
       <c r="O48" s="22">
         <v>4</v>
       </c>
       <c r="P48" s="23">
         <v>6</v>
       </c>
-      <c r="Q48" s="24"/>
+      <c r="Q48" s="24">
+        <v>2</v>
+      </c>
       <c r="R48" s="22">
         <v>4</v>
       </c>
       <c r="S48" s="23">
         <v>6</v>
       </c>
-      <c r="T48" s="24"/>
+      <c r="T48" s="24">
+        <v>2</v>
+      </c>
       <c r="U48" s="22">
         <v>4</v>
       </c>
       <c r="V48" s="23">
         <v>6</v>
       </c>
-      <c r="W48" s="24"/>
+      <c r="W48" s="24">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" ht="15.6">
       <c r="A49" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="28">
@@ -3168,9 +3390,7 @@
       <c r="D49" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="E49" s="29"/>
       <c r="F49" s="28">
         <v>5</v>
       </c>
@@ -3218,70 +3438,64 @@
       <c r="A50" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="20"/>
-      <c r="E50" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="55"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="55"/>
       <c r="M50" s="20"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="20"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="55"/>
       <c r="S50" s="20"/>
-      <c r="T50" s="57"/>
-      <c r="U50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="55"/>
       <c r="V50" s="20"/>
-      <c r="W50" s="57"/>
+      <c r="W50" s="56"/>
     </row>
     <row r="51" ht="15.6">
       <c r="A51" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="71"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="67"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="69"/>
     </row>
     <row r="52" ht="14.4">
       <c r="C52" s="14"/>
       <c r="D52" s="25"/>
-      <c r="E52" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="E52" s="20"/>
       <c r="F52" s="14"/>
       <c r="G52" s="25"/>
       <c r="H52" s="20"/>
@@ -3304,9 +3518,7 @@
     <row r="53" ht="14.4">
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
-      <c r="E53" s="14" t="s">
-        <v>34</v>
-      </c>
+      <c r="E53" s="14"/>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="14"/>
@@ -3329,9 +3541,7 @@
     <row r="54" ht="13.2">
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -15337,6 +15547,14 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="R28:T28"/>
+    <mergeCell ref="O28:Q28"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="AA4:AC4"/>
@@ -15346,14 +15564,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="R28:T28"/>
-    <mergeCell ref="O28:Q28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
